--- a/RUDN/Importance/Varible_f_class_in_Western Asia.xlsx
+++ b/RUDN/Importance/Varible_f_class_in_Western Asia.xlsx
@@ -187,10 +187,10 @@
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
   </si>
   <si>
     <t>Lifetime risk of maternal death (%)</t>
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>329.3228478239879</v>
+        <v>329.3228478239887</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>329.3228478239879</v>
+        <v>329.3228478239887</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>321.4750796602368</v>
+        <v>321.475079660341</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>224.1692726951554</v>
+        <v>224.1692726951561</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>173.6466042970703</v>
+        <v>173.6466042970708</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>143.4615031720736</v>
+        <v>143.4615031720805</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>105.3643075767497</v>
+        <v>105.3643075767591</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>97.34486502733394</v>
+        <v>97.34486502733388</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>79.39831483585461</v>
+        <v>79.39831483585458</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>71.42933433042657</v>
+        <v>71.42933433042654</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>66.77967215823537</v>
+        <v>66.77967215823539</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>58.48993175516456</v>
+        <v>58.48993175516723</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>58.45416394462806</v>
+        <v>58.45416394462808</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>53.93278843647386</v>
+        <v>53.9327884364739</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>51.0584158478013</v>
+        <v>51.05841584779964</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>51.0584158478013</v>
+        <v>51.05841584779964</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>48.72487465762181</v>
+        <v>48.72487465769722</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>48.00013386801201</v>
+        <v>48.00013386801204</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>47.93002787108061</v>
+        <v>47.93002787108064</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>47.93002787108061</v>
+        <v>47.93002787108064</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>45.37188013132764</v>
+        <v>45.37188013132766</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>39.39985728605685</v>
+        <v>39.39985728605686</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>36.74020373220486</v>
+        <v>36.74020373220487</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>34.72149062329199</v>
+        <v>34.72149062329213</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>34.34375264045874</v>
+        <v>34.34375264045862</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>34.34375264045865</v>
+        <v>34.3437526404585</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>33.71885157682553</v>
+        <v>33.71885157682522</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>31.16048027136966</v>
+        <v>31.1604802713695</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>30.3203340793042</v>
+        <v>30.32033407930417</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>29.2672666197427</v>
+        <v>29.26726661974265</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>28.41044583167198</v>
+        <v>28.41044583167197</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>25.62499960508137</v>
+        <v>25.62499960508138</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2474,7 +2474,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>25.62499717632898</v>
+        <v>25.62499717632902</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>25.62498920957496</v>
+        <v>25.62498920957495</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>25.62498920957496</v>
+        <v>25.62498920957495</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>25.15247125409072</v>
+        <v>25.15247125409071</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>24.36119717412774</v>
+        <v>24.36119717412779</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>23.83261989256366</v>
+        <v>23.8326198925636</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>23.47093372418012</v>
+        <v>23.47093372417985</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>22.5395269840267</v>
+        <v>22.53952698402668</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>22.35733307735353</v>
+        <v>22.35733307735335</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>22.1254608994651</v>
+        <v>22.12546089946511</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>21.53261597335067</v>
+        <v>21.53261597335069</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>20.58453395993282</v>
+        <v>20.58453395993284</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>19.92825213582181</v>
+        <v>19.9282521358222</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>19.74706424439558</v>
+        <v>19.74706424439556</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>19.46789139093374</v>
+        <v>19.46789139093376</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>18.99784482758614</v>
+        <v>18.99784482758615</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>18.99784482758614</v>
+        <v>18.99784482758615</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>18.99336926556552</v>
+        <v>18.99336926556553</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>18.9762005241095</v>
+        <v>18.97620052410951</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>18.55546305042086</v>
+        <v>18.55546305042088</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>18.51416891534204</v>
+        <v>18.51416891534203</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>17.90926177292614</v>
+        <v>17.90926177292619</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>17.83654293010758</v>
+        <v>17.83654293010756</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>17.65471491250199</v>
+        <v>17.65471491250201</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>17.31574490428716</v>
+        <v>17.31574490428667</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>17.13781448746591</v>
+        <v>17.13781448746589</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>16.91805360470652</v>
+        <v>16.91805360470675</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>16.5297104229057</v>
+        <v>16.52971042290569</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>16.51833400643325</v>
+        <v>16.51833400643317</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>16.47612149220849</v>
+        <v>16.4761214922085</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>16.47446432009383</v>
+        <v>16.47446432009382</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3376,7 +3376,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>16.47336185763387</v>
+        <v>16.47336185763388</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>16.47329593275332</v>
+        <v>16.47329593275331</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>16.32785353081682</v>
+        <v>16.32785353081683</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>16.11457246919217</v>
+        <v>16.11457246919213</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>16.07906575509136</v>
+        <v>16.07906575509138</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3519,7 +3519,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>16.07906575509136</v>
+        <v>16.07906575509138</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>15.97659500568102</v>
+        <v>15.97659500568103</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>15.78441603746421</v>
+        <v>15.78441603746424</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>15.63709638724559</v>
+        <v>15.63709638724563</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>15.56374186066368</v>
+        <v>15.56374186066367</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3662,7 +3662,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>15.53169575692483</v>
+        <v>15.53169575692482</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>15.46537108175032</v>
+        <v>15.46537108175031</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>15.43702190484396</v>
+        <v>15.43702190484399</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>15.33199653458114</v>
+        <v>15.3319965345811</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>15.28773922704429</v>
+        <v>15.28773922704425</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3772,7 +3772,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>15.27640088594657</v>
+        <v>15.27640088594661</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>14.47537110003889</v>
+        <v>14.47537110003898</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>14.09183141321926</v>
+        <v>14.09183141321927</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>13.9753573260862</v>
+        <v>13.97535732608621</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>13.5041670219706</v>
+        <v>13.50416702197059</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>13.47558735900621</v>
+        <v>13.4755873590062</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>13.37327311283755</v>
+        <v>13.37327311283749</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>13.35109406222982</v>
+        <v>13.35109406222981</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -4190,7 +4190,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>13.10366390633082</v>
+        <v>13.10366390633083</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4267,7 +4267,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>12.62004669270522</v>
+        <v>12.62004669270526</v>
       </c>
       <c r="C244">
         <v>1e-05</v>
@@ -4311,7 +4311,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>12.40647379798466</v>
+        <v>12.40647379798495</v>
       </c>
       <c r="C248">
         <v>1e-05</v>
@@ -4410,7 +4410,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>12.1250943357444</v>
+        <v>12.12509433574281</v>
       </c>
       <c r="C257">
         <v>1e-05</v>
@@ -4421,7 +4421,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>12.06344730407407</v>
+        <v>12.06344730407409</v>
       </c>
       <c r="C258">
         <v>1e-05</v>
@@ -4432,7 +4432,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>12.04964895108719</v>
+        <v>12.04964895108724</v>
       </c>
       <c r="C259">
         <v>1e-05</v>
@@ -4454,7 +4454,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>11.98096332227815</v>
+        <v>11.98096332227812</v>
       </c>
       <c r="C261">
         <v>1e-05</v>
@@ -4487,7 +4487,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>11.76903194109653</v>
+        <v>11.76903194109654</v>
       </c>
       <c r="C264">
         <v>1e-05</v>
@@ -4531,7 +4531,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>11.60972580811098</v>
+        <v>11.60972580811116</v>
       </c>
       <c r="C268">
         <v>2e-05</v>
@@ -4564,7 +4564,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>11.51707225873129</v>
+        <v>11.51707225873128</v>
       </c>
       <c r="C271">
         <v>2e-05</v>
@@ -4575,7 +4575,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>11.50104673977862</v>
+        <v>11.50104673977858</v>
       </c>
       <c r="C272">
         <v>2e-05</v>
@@ -4608,7 +4608,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>11.47605832598741</v>
+        <v>11.4760583259874</v>
       </c>
       <c r="C275">
         <v>2e-05</v>
@@ -4630,7 +4630,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>11.36293936257045</v>
+        <v>11.36293936257039</v>
       </c>
       <c r="C277">
         <v>2e-05</v>
@@ -4707,7 +4707,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>11.16032238729583</v>
+        <v>11.16032238729584</v>
       </c>
       <c r="C284">
         <v>3e-05</v>
@@ -4795,7 +4795,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>10.85422410122898</v>
+        <v>10.85422410122897</v>
       </c>
       <c r="C292">
         <v>3e-05</v>
@@ -4806,7 +4806,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>10.67383234710704</v>
+        <v>10.67383234710705</v>
       </c>
       <c r="C293">
         <v>4e-05</v>
@@ -4817,7 +4817,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>10.66927775460528</v>
+        <v>10.66927775460527</v>
       </c>
       <c r="C294">
         <v>4e-05</v>
@@ -4828,7 +4828,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>10.65142346585347</v>
+        <v>10.65142346585346</v>
       </c>
       <c r="C295">
         <v>4e-05</v>
@@ -4839,7 +4839,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>10.53110083783483</v>
+        <v>10.53110083783486</v>
       </c>
       <c r="C296">
         <v>4e-05</v>
@@ -4883,7 +4883,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>10.32174258343728</v>
+        <v>10.32174258343713</v>
       </c>
       <c r="C300">
         <v>5e-05</v>
@@ -4905,7 +4905,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>10.31486722848546</v>
+        <v>10.31486722848545</v>
       </c>
       <c r="C302">
         <v>5e-05</v>
@@ -4916,7 +4916,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>10.27252645645916</v>
+        <v>10.27252645645917</v>
       </c>
       <c r="C303">
         <v>6e-05</v>
@@ -4993,7 +4993,7 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>9.929273153256808</v>
+        <v>9.929273153256776</v>
       </c>
       <c r="C310">
         <v>8.000000000000001e-05</v>
@@ -5004,7 +5004,7 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>9.920384541902065</v>
+        <v>9.920384541902093</v>
       </c>
       <c r="C311">
         <v>8.000000000000001e-05</v>
@@ -5059,7 +5059,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>9.52868033660512</v>
+        <v>9.528680336605126</v>
       </c>
       <c r="C316">
         <v>0.00011</v>
@@ -5070,7 +5070,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>9.521823856678093</v>
+        <v>9.521823856677727</v>
       </c>
       <c r="C317">
         <v>0.00011</v>
@@ -5092,7 +5092,7 @@
         <v>319</v>
       </c>
       <c r="B319">
-        <v>9.468785692242633</v>
+        <v>9.468785692242637</v>
       </c>
       <c r="C319">
         <v>0.00012</v>
@@ -5114,7 +5114,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>9.419844219294005</v>
+        <v>9.419844219294006</v>
       </c>
       <c r="C321">
         <v>0.00012</v>
@@ -5125,7 +5125,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>9.36107372803227</v>
+        <v>9.361073728032276</v>
       </c>
       <c r="C322">
         <v>0.00013</v>
@@ -5147,7 +5147,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>9.166009889825004</v>
+        <v>9.166009889826009</v>
       </c>
       <c r="C324">
         <v>0.00015</v>
@@ -5169,7 +5169,7 @@
         <v>326</v>
       </c>
       <c r="B326">
-        <v>9.098333362970314</v>
+        <v>9.098333362970097</v>
       </c>
       <c r="C326">
         <v>0.00016</v>
@@ -5180,7 +5180,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>9.059748741493792</v>
+        <v>9.059748741493928</v>
       </c>
       <c r="C327">
         <v>0.00017</v>
@@ -5191,7 +5191,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>9.057265070772244</v>
+        <v>9.05726507077225</v>
       </c>
       <c r="C328">
         <v>0.00017</v>
@@ -5202,7 +5202,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>8.987863759213337</v>
+        <v>8.987863759212884</v>
       </c>
       <c r="C329">
         <v>0.00018</v>
@@ -5257,7 +5257,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>8.539307257170208</v>
+        <v>8.539307257170039</v>
       </c>
       <c r="C334">
         <v>0.00027</v>
@@ -5268,7 +5268,7 @@
         <v>335</v>
       </c>
       <c r="B335">
-        <v>8.500989403324287</v>
+        <v>8.500989403324187</v>
       </c>
       <c r="C335">
         <v>0.00028</v>
@@ -5290,7 +5290,7 @@
         <v>337</v>
       </c>
       <c r="B337">
-        <v>8.251948868504693</v>
+        <v>8.251948868504652</v>
       </c>
       <c r="C337">
         <v>0.00036</v>
@@ -5312,7 +5312,7 @@
         <v>339</v>
       </c>
       <c r="B339">
-        <v>8.109284499500085</v>
+        <v>8.10928449950007</v>
       </c>
       <c r="C339">
         <v>0.00041</v>
@@ -5334,7 +5334,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>7.895552613166477</v>
+        <v>7.895552613166469</v>
       </c>
       <c r="C341">
         <v>0.0005</v>
@@ -5411,7 +5411,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>7.449252717537791</v>
+        <v>7.449252717537739</v>
       </c>
       <c r="C348">
         <v>0.00075</v>
@@ -5444,7 +5444,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>7.376063685582024</v>
+        <v>7.376063685582</v>
       </c>
       <c r="C351">
         <v>0.00081</v>
@@ -5455,7 +5455,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>7.376063685582024</v>
+        <v>7.376063685582</v>
       </c>
       <c r="C352">
         <v>0.00081</v>
@@ -5466,7 +5466,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>7.368363199077117</v>
+        <v>7.368363199077148</v>
       </c>
       <c r="C353">
         <v>0.00081</v>
@@ -5521,7 +5521,7 @@
         <v>358</v>
       </c>
       <c r="B358">
-        <v>6.983311042168604</v>
+        <v>6.983311042168538</v>
       </c>
       <c r="C358">
         <v>0.00116</v>
@@ -5543,7 +5543,7 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>6.829970034692121</v>
+        <v>6.82997003469212</v>
       </c>
       <c r="C360">
         <v>0.00134</v>
@@ -5565,7 +5565,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>6.75343631657005</v>
+        <v>6.75343631657006</v>
       </c>
       <c r="C362">
         <v>0.00144</v>
@@ -5631,7 +5631,7 @@
         <v>368</v>
       </c>
       <c r="B368">
-        <v>6.550304995401023</v>
+        <v>6.550304995400356</v>
       </c>
       <c r="C368">
         <v>0.00175</v>
@@ -5697,7 +5697,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>5.720721882710784</v>
+        <v>5.720721882711339</v>
       </c>
       <c r="C374">
         <v>0.00382</v>
@@ -5730,7 +5730,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>5.536382603006497</v>
+        <v>5.536382603006454</v>
       </c>
       <c r="C377">
         <v>0.00455</v>
@@ -5818,7 +5818,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>5.434541727515845</v>
+        <v>5.434541727515795</v>
       </c>
       <c r="C385">
         <v>0.00501</v>
@@ -5829,7 +5829,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>5.434541727514763</v>
+        <v>5.434541727515721</v>
       </c>
       <c r="C386">
         <v>0.00501</v>
@@ -5851,7 +5851,7 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>5.392567400413764</v>
+        <v>5.392567400413765</v>
       </c>
       <c r="C388">
         <v>0.00522</v>
@@ -5895,7 +5895,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>5.124003329092949</v>
+        <v>5.124003329092992</v>
       </c>
       <c r="C392">
         <v>0.00674</v>
@@ -5906,7 +5906,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>5.046271739152721</v>
+        <v>5.046271739152748</v>
       </c>
       <c r="C393">
         <v>0.00726</v>
@@ -5917,7 +5917,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>5.038170458337186</v>
+        <v>5.038170458337214</v>
       </c>
       <c r="C394">
         <v>0.00731</v>
@@ -5961,7 +5961,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>5.016837994610478</v>
+        <v>5.01683799461046</v>
       </c>
       <c r="C398">
         <v>0.00746</v>
@@ -5983,7 +5983,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>4.930403472546121</v>
+        <v>4.93040347254612</v>
       </c>
       <c r="C400">
         <v>0.0081</v>
@@ -5994,7 +5994,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>4.886146178900209</v>
+        <v>4.886146178900194</v>
       </c>
       <c r="C401">
         <v>0.008449999999999999</v>
@@ -6005,7 +6005,7 @@
         <v>402</v>
       </c>
       <c r="B402">
-        <v>4.869919152800841</v>
+        <v>4.86991915280073</v>
       </c>
       <c r="C402">
         <v>0.008580000000000001</v>
@@ -6016,7 +6016,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>4.783426185367149</v>
+        <v>4.783426185367146</v>
       </c>
       <c r="C403">
         <v>0.00932</v>
